--- a/Data/Temp/SharePoint.xlsx
+++ b/Data/Temp/SharePoint.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <x:si>
     <x:t>Name</x:t>
   </x:si>
@@ -107,76 +107,13 @@
     <x:t>RPA Journal</x:t>
   </x:si>
   <x:si>
-    <x:t>04/01/2021 11:07</x:t>
+    <x:t>04/01/2021 18:44</x:t>
   </x:si>
   <x:si>
     <x:t>Steve RPA</x:t>
   </x:si>
   <x:si>
     <x:t>16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SGSIN20023675P_PSA_pilot3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PILOTAGE - SHIFTING</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PSA MARINE (PTE) LTD -ACCT NO: 903709</x:t>
-  </x:si>
-  <x:si>
-    <x:t>001271_043</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VL71514</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16/11/2020</x:t>
-  </x:si>
-  <x:si>
-    <x:t>504.07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24/12/2020 18:34</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SGSIN20023675P_TuasPower_moorin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1041</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MOORING</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TUAS POWER GENERATION PTE LTD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>001631_043</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1800018711</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19/11/2020</x:t>
-  </x:si>
-  <x:si>
-    <x:t>USD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,136</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24/12/2020 12:45</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -648,102 +585,42 @@
       <x:c r="U2" s="1" t="s"/>
     </x:row>
     <x:row r="3" spans="1:21">
-      <x:c r="A3" s="1" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="B3" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C3" s="1" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="D3" s="1" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="E3" s="1" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="F3" s="1" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="G3" s="1" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="H3" s="1" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="I3" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="J3" s="1" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="K3" s="1" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="L3" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
+      <x:c r="A3" s="1" t="s"/>
+      <x:c r="B3" s="1" t="s"/>
+      <x:c r="C3" s="1" t="s"/>
+      <x:c r="D3" s="1" t="s"/>
+      <x:c r="E3" s="1" t="s"/>
+      <x:c r="F3" s="1" t="s"/>
+      <x:c r="G3" s="1" t="s"/>
+      <x:c r="H3" s="1" t="s"/>
+      <x:c r="I3" s="1" t="s"/>
+      <x:c r="J3" s="1" t="s"/>
+      <x:c r="K3" s="1" t="s"/>
+      <x:c r="L3" s="1" t="s"/>
       <x:c r="M3" s="1" t="s"/>
-      <x:c r="P3" s="1" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="Q3" s="1" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="R3" s="1" t="s">
-        <x:v>42</x:v>
-      </x:c>
+      <x:c r="P3" s="1" t="s"/>
+      <x:c r="Q3" s="1" t="s"/>
+      <x:c r="R3" s="1" t="s"/>
       <x:c r="S3" s="1" t="s"/>
       <x:c r="T3" s="1" t="s"/>
     </x:row>
     <x:row r="4" spans="1:21">
-      <x:c r="A4" s="1" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="B4" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C4" s="1" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="D4" s="1" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="E4" s="1" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="F4" s="1" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="G4" s="1" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="H4" s="1" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="I4" s="1" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="J4" s="1" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="K4" s="1" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="L4" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
+      <x:c r="A4" s="1" t="s"/>
+      <x:c r="B4" s="1" t="s"/>
+      <x:c r="C4" s="1" t="s"/>
+      <x:c r="D4" s="1" t="s"/>
+      <x:c r="E4" s="1" t="s"/>
+      <x:c r="F4" s="1" t="s"/>
+      <x:c r="G4" s="1" t="s"/>
+      <x:c r="H4" s="1" t="s"/>
+      <x:c r="I4" s="1" t="s"/>
+      <x:c r="J4" s="1" t="s"/>
+      <x:c r="K4" s="1" t="s"/>
+      <x:c r="L4" s="1" t="s"/>
       <x:c r="M4" s="1" t="s"/>
-      <x:c r="P4" s="1" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="Q4" s="1" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="R4" s="1" t="s">
-        <x:v>53</x:v>
-      </x:c>
+      <x:c r="P4" s="1" t="s"/>
+      <x:c r="Q4" s="1" t="s"/>
+      <x:c r="R4" s="1" t="s"/>
       <x:c r="S4" s="1" t="s"/>
     </x:row>
     <x:row r="5" spans="1:21"/>

--- a/Data/Temp/SharePoint.xlsx
+++ b/Data/Temp/SharePoint.xlsx
@@ -71,25 +71,25 @@
     <x:t>ID</x:t>
   </x:si>
   <x:si>
-    <x:t>SGSIN20023675P_PSA_pilot</x:t>
+    <x:t>SGSIN20023675P__YL</x:t>
   </x:si>
   <x:si>
     <x:t>SGSIN20000035P</x:t>
   </x:si>
   <x:si>
-    <x:t>1021</x:t>
+    <x:t>1070</x:t>
   </x:si>
   <x:si>
-    <x:t>PILOTAGE - IN</x:t>
+    <x:t>LAUNCH SERVICES</x:t>
   </x:si>
   <x:si>
-    <x:t>PSA CORPORATION LIMITED - FLOATELSG</x:t>
+    <x:t>YORK LAUNCH SERVICE PTE LTD</x:t>
   </x:si>
   <x:si>
-    <x:t>002017_043</x:t>
+    <x:t>001811_043</x:t>
   </x:si>
   <x:si>
-    <x:t>VL6108</x:t>
+    <x:t>IN47769224</x:t>
   </x:si>
   <x:si>
     <x:t>12/11/2020</x:t>
@@ -98,7 +98,7 @@
     <x:t>SGD</x:t>
   </x:si>
   <x:si>
-    <x:t>253.11</x:t>
+    <x:t>374.5</x:t>
   </x:si>
   <x:si>
     <x:t>GST - INC - 7%</x:t>
@@ -107,13 +107,13 @@
     <x:t>RPA Journal</x:t>
   </x:si>
   <x:si>
-    <x:t>04/01/2021 18:44</x:t>
+    <x:t>04/01/2021 21:30</x:t>
   </x:si>
   <x:si>
     <x:t>Steve RPA</x:t>
   </x:si>
   <x:si>
-    <x:t>16</x:t>
+    <x:t>12</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/Data/Temp/SharePoint.xlsx
+++ b/Data/Temp/SharePoint.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <x:si>
     <x:t>Name</x:t>
   </x:si>
@@ -71,34 +71,28 @@
     <x:t>ID</x:t>
   </x:si>
   <x:si>
-    <x:t>SGSIN20023675P__YL</x:t>
+    <x:t>SGSIN20023675P_MPA2</x:t>
   </x:si>
   <x:si>
     <x:t>SGSIN20000035P</x:t>
   </x:si>
   <x:si>
-    <x:t>1070</x:t>
+    <x:t>MARINE CARE SINGAPORE PTE LTD</x:t>
   </x:si>
   <x:si>
-    <x:t>LAUNCH SERVICES</x:t>
+    <x:t>001860_043</x:t>
   </x:si>
   <x:si>
-    <x:t>YORK LAUNCH SERVICE PTE LTD</x:t>
+    <x:t>0501950188</x:t>
   </x:si>
   <x:si>
-    <x:t>001811_043</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IN47769224</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12/11/2020</x:t>
+    <x:t>13/11/2020</x:t>
   </x:si>
   <x:si>
     <x:t>SGD</x:t>
   </x:si>
   <x:si>
-    <x:t>374.5</x:t>
+    <x:t>53.5</x:t>
   </x:si>
   <x:si>
     <x:t>GST - INC - 7%</x:t>
@@ -107,13 +101,85 @@
     <x:t>RPA Journal</x:t>
   </x:si>
   <x:si>
-    <x:t>04/01/2021 21:30</x:t>
+    <x:t>06/01/2021 09:29</x:t>
   </x:si>
   <x:si>
     <x:t>Steve RPA</x:t>
   </x:si>
   <x:si>
-    <x:t>12</x:t>
+    <x:t>14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SGSIN20023675P_PDA_pilot2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1021</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PILOTAGE - IN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PSA CORPORATION LIMITED - FLOATELSG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>002017_043</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VL7161</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16/11/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>252.57</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/01/2021 09:06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SGSIN20023675P_PSA_pilot</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VL6108</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12/11/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>253.11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SGSIN20023675P_PSA_pilot3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PILOTAGE - SHIFTING</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PSA MARINE (PTE) LTD -ACCT NO: 903709</x:t>
+  </x:si>
+  <x:si>
+    <x:t>001271_043</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VL71518</x:t>
+  </x:si>
+  <x:si>
+    <x:t>504.07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/01/2021 09:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -538,100 +604,330 @@
       <x:c r="B2" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="C2" s="1" t="s">
+      <x:c r="C2" s="1" t="s"/>
+      <x:c r="D2" s="1" t="s"/>
+      <x:c r="E2" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="D2" s="1" t="s">
+      <x:c r="F2" s="1" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="E2" s="1" t="s">
+      <x:c r="G2" s="1" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="F2" s="1" t="s">
+      <x:c r="H2" s="1" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="G2" s="1" t="s">
+      <x:c r="I2" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="H2" s="1" t="s">
+      <x:c r="J2" s="1" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="I2" s="1" t="s">
+      <x:c r="K2" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="J2" s="1" t="s">
+      <x:c r="L2" s="1" t="s">
         <x:v>27</x:v>
-      </x:c>
-      <x:c r="K2" s="1" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="L2" s="1" t="s">
-        <x:v>29</x:v>
       </x:c>
       <x:c r="M2" s="1" t="s"/>
       <x:c r="N2" s="1" t="s"/>
       <x:c r="O2" s="1" t="s"/>
       <x:c r="P2" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="Q2" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="R2" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S2" s="1" t="s"/>
       <x:c r="T2" s="1" t="s"/>
       <x:c r="U2" s="1" t="s"/>
     </x:row>
     <x:row r="3" spans="1:21">
-      <x:c r="A3" s="1" t="s"/>
-      <x:c r="B3" s="1" t="s"/>
-      <x:c r="C3" s="1" t="s"/>
-      <x:c r="D3" s="1" t="s"/>
-      <x:c r="E3" s="1" t="s"/>
-      <x:c r="F3" s="1" t="s"/>
-      <x:c r="G3" s="1" t="s"/>
-      <x:c r="H3" s="1" t="s"/>
-      <x:c r="I3" s="1" t="s"/>
-      <x:c r="J3" s="1" t="s"/>
-      <x:c r="K3" s="1" t="s"/>
-      <x:c r="L3" s="1" t="s"/>
+      <x:c r="A3" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B3" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C3" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D3" s="1" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E3" s="1" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="F3" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="G3" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="H3" s="1" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="I3" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J3" s="1" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K3" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="L3" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
       <x:c r="M3" s="1" t="s"/>
-      <x:c r="P3" s="1" t="s"/>
-      <x:c r="Q3" s="1" t="s"/>
-      <x:c r="R3" s="1" t="s"/>
+      <x:c r="P3" s="1" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="Q3" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="R3" s="1" t="s">
+        <x:v>40</x:v>
+      </x:c>
       <x:c r="S3" s="1" t="s"/>
       <x:c r="T3" s="1" t="s"/>
     </x:row>
     <x:row r="4" spans="1:21">
-      <x:c r="A4" s="1" t="s"/>
-      <x:c r="B4" s="1" t="s"/>
-      <x:c r="C4" s="1" t="s"/>
-      <x:c r="D4" s="1" t="s"/>
-      <x:c r="E4" s="1" t="s"/>
-      <x:c r="F4" s="1" t="s"/>
-      <x:c r="G4" s="1" t="s"/>
-      <x:c r="H4" s="1" t="s"/>
-      <x:c r="I4" s="1" t="s"/>
-      <x:c r="J4" s="1" t="s"/>
-      <x:c r="K4" s="1" t="s"/>
-      <x:c r="L4" s="1" t="s"/>
+      <x:c r="A4" s="1" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B4" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C4" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D4" s="1" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E4" s="1" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="F4" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="G4" s="1" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="H4" s="1" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I4" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J4" s="1" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="K4" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="L4" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
       <x:c r="M4" s="1" t="s"/>
-      <x:c r="P4" s="1" t="s"/>
-      <x:c r="Q4" s="1" t="s"/>
-      <x:c r="R4" s="1" t="s"/>
+      <x:c r="P4" s="1" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="Q4" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="R4" s="1" t="s">
+        <x:v>45</x:v>
+      </x:c>
       <x:c r="S4" s="1" t="s"/>
     </x:row>
-    <x:row r="5" spans="1:21"/>
-    <x:row r="6" spans="1:21"/>
-    <x:row r="7" spans="1:21"/>
-    <x:row r="8" spans="1:21"/>
-    <x:row r="9" spans="1:21"/>
-    <x:row r="10" spans="1:21"/>
-    <x:row r="11" spans="1:21"/>
-    <x:row r="12" spans="1:21"/>
-    <x:row r="13" spans="1:21"/>
+    <x:row r="5" spans="1:21">
+      <x:c r="A5" s="1" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B5" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C5" s="1" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D5" s="1" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="E5" s="1" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="F5" s="1" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="G5" s="1" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="H5" s="1" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="I5" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J5" s="1" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="K5" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="L5" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="P5" s="1" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="Q5" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="R5" s="1" t="s">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:21">
+      <x:c r="A6" s="1" t="s"/>
+      <x:c r="B6" s="1" t="s"/>
+      <x:c r="C6" s="1" t="s"/>
+      <x:c r="D6" s="1" t="s"/>
+      <x:c r="E6" s="1" t="s"/>
+      <x:c r="F6" s="1" t="s"/>
+      <x:c r="G6" s="1" t="s"/>
+      <x:c r="H6" s="1" t="s"/>
+      <x:c r="I6" s="1" t="s"/>
+      <x:c r="J6" s="1" t="s"/>
+      <x:c r="K6" s="1" t="s"/>
+      <x:c r="L6" s="1" t="s"/>
+      <x:c r="P6" s="1" t="s"/>
+      <x:c r="Q6" s="1" t="s"/>
+      <x:c r="R6" s="1" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:21">
+      <x:c r="A7" s="1" t="s"/>
+      <x:c r="B7" s="1" t="s"/>
+      <x:c r="C7" s="1" t="s"/>
+      <x:c r="D7" s="1" t="s"/>
+      <x:c r="E7" s="1" t="s"/>
+      <x:c r="F7" s="1" t="s"/>
+      <x:c r="G7" s="1" t="s"/>
+      <x:c r="H7" s="1" t="s"/>
+      <x:c r="I7" s="1" t="s"/>
+      <x:c r="J7" s="1" t="s"/>
+      <x:c r="K7" s="1" t="s"/>
+      <x:c r="L7" s="1" t="s"/>
+      <x:c r="P7" s="1" t="s"/>
+      <x:c r="Q7" s="1" t="s"/>
+      <x:c r="R7" s="1" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:21">
+      <x:c r="A8" s="1" t="s"/>
+      <x:c r="B8" s="1" t="s"/>
+      <x:c r="C8" s="1" t="s"/>
+      <x:c r="D8" s="1" t="s"/>
+      <x:c r="E8" s="1" t="s"/>
+      <x:c r="F8" s="1" t="s"/>
+      <x:c r="G8" s="1" t="s"/>
+      <x:c r="H8" s="1" t="s"/>
+      <x:c r="I8" s="1" t="s"/>
+      <x:c r="J8" s="1" t="s"/>
+      <x:c r="K8" s="1" t="s"/>
+      <x:c r="L8" s="1" t="s"/>
+      <x:c r="P8" s="1" t="s"/>
+      <x:c r="Q8" s="1" t="s"/>
+      <x:c r="R8" s="1" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:21">
+      <x:c r="A9" s="1" t="s"/>
+      <x:c r="B9" s="1" t="s"/>
+      <x:c r="C9" s="1" t="s"/>
+      <x:c r="D9" s="1" t="s"/>
+      <x:c r="E9" s="1" t="s"/>
+      <x:c r="F9" s="1" t="s"/>
+      <x:c r="G9" s="1" t="s"/>
+      <x:c r="H9" s="1" t="s"/>
+      <x:c r="I9" s="1" t="s"/>
+      <x:c r="J9" s="1" t="s"/>
+      <x:c r="K9" s="1" t="s"/>
+      <x:c r="L9" s="1" t="s"/>
+      <x:c r="P9" s="1" t="s"/>
+      <x:c r="Q9" s="1" t="s"/>
+      <x:c r="R9" s="1" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:21">
+      <x:c r="A10" s="1" t="s"/>
+      <x:c r="B10" s="1" t="s"/>
+      <x:c r="C10" s="1" t="s"/>
+      <x:c r="D10" s="1" t="s"/>
+      <x:c r="E10" s="1" t="s"/>
+      <x:c r="F10" s="1" t="s"/>
+      <x:c r="G10" s="1" t="s"/>
+      <x:c r="H10" s="1" t="s"/>
+      <x:c r="I10" s="1" t="s"/>
+      <x:c r="J10" s="1" t="s"/>
+      <x:c r="K10" s="1" t="s"/>
+      <x:c r="L10" s="1" t="s"/>
+      <x:c r="P10" s="1" t="s"/>
+      <x:c r="Q10" s="1" t="s"/>
+      <x:c r="R10" s="1" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:21">
+      <x:c r="A11" s="1" t="s"/>
+      <x:c r="B11" s="1" t="s"/>
+      <x:c r="C11" s="1" t="s"/>
+      <x:c r="D11" s="1" t="s"/>
+      <x:c r="E11" s="1" t="s"/>
+      <x:c r="F11" s="1" t="s"/>
+      <x:c r="G11" s="1" t="s"/>
+      <x:c r="H11" s="1" t="s"/>
+      <x:c r="I11" s="1" t="s"/>
+      <x:c r="J11" s="1" t="s"/>
+      <x:c r="K11" s="1" t="s"/>
+      <x:c r="L11" s="1" t="s"/>
+      <x:c r="P11" s="1" t="s"/>
+      <x:c r="Q11" s="1" t="s"/>
+      <x:c r="R11" s="1" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:21">
+      <x:c r="A12" s="1" t="s"/>
+      <x:c r="B12" s="1" t="s"/>
+      <x:c r="C12" s="1" t="s"/>
+      <x:c r="D12" s="1" t="s"/>
+      <x:c r="E12" s="1" t="s"/>
+      <x:c r="F12" s="1" t="s"/>
+      <x:c r="G12" s="1" t="s"/>
+      <x:c r="H12" s="1" t="s"/>
+      <x:c r="I12" s="1" t="s"/>
+      <x:c r="J12" s="1" t="s"/>
+      <x:c r="K12" s="1" t="s"/>
+      <x:c r="L12" s="1" t="s"/>
+      <x:c r="P12" s="1" t="s"/>
+      <x:c r="Q12" s="1" t="s"/>
+      <x:c r="R12" s="1" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:21">
+      <x:c r="A13" s="1" t="s"/>
+      <x:c r="B13" s="1" t="s"/>
+      <x:c r="C13" s="1" t="s"/>
+      <x:c r="D13" s="1" t="s"/>
+      <x:c r="E13" s="1" t="s"/>
+      <x:c r="F13" s="1" t="s"/>
+      <x:c r="G13" s="1" t="s"/>
+      <x:c r="H13" s="1" t="s"/>
+      <x:c r="I13" s="1" t="s"/>
+      <x:c r="J13" s="1" t="s"/>
+      <x:c r="K13" s="1" t="s"/>
+      <x:c r="L13" s="1" t="s"/>
+      <x:c r="P13" s="1" t="s"/>
+      <x:c r="Q13" s="1" t="s"/>
+      <x:c r="R13" s="1" t="s"/>
+    </x:row>
     <x:row r="14" spans="1:21"/>
     <x:row r="15" spans="1:21"/>
     <x:row r="16" spans="1:21"/>

--- a/Data/Temp/SharePoint.xlsx
+++ b/Data/Temp/SharePoint.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <x:si>
     <x:t>Name</x:t>
   </x:si>
@@ -71,91 +71,10 @@
     <x:t>ID</x:t>
   </x:si>
   <x:si>
-    <x:t>SGSIN20023675P_MPA2</x:t>
+    <x:t>SGSIN20023675P_PSA_pilot3</x:t>
   </x:si>
   <x:si>
     <x:t>SGSIN20000035P</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MARINE CARE SINGAPORE PTE LTD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>001860_043</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0501950188</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13/11/2020</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SGD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>53.5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GST - INC - 7%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RPA Journal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>06/01/2021 09:29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Steve RPA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SGSIN20023675P_PDA_pilot2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1021</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PILOTAGE - IN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PSA CORPORATION LIMITED - FLOATELSG</x:t>
-  </x:si>
-  <x:si>
-    <x:t>002017_043</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VL7161</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16/11/2020</x:t>
-  </x:si>
-  <x:si>
-    <x:t>252.57</x:t>
-  </x:si>
-  <x:si>
-    <x:t>06/01/2021 09:06</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SGSIN20023675P_PSA_pilot</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VL6108</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12/11/2020</x:t>
-  </x:si>
-  <x:si>
-    <x:t>253.11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SGSIN20023675P_PSA_pilot3</x:t>
   </x:si>
   <x:si>
     <x:t>1023</x:t>
@@ -170,13 +89,28 @@
     <x:t>001271_043</x:t>
   </x:si>
   <x:si>
-    <x:t>VL71518</x:t>
+    <x:t>VL71520</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16/11/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SGD</x:t>
   </x:si>
   <x:si>
     <x:t>504.07</x:t>
   </x:si>
   <x:si>
-    <x:t>06/01/2021 09:02</x:t>
+    <x:t>GST - INC - 7%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RPA Journal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/01/2021 21:57</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Steve RPA</x:t>
   </x:si>
   <x:si>
     <x:t>17</x:t>
@@ -604,193 +538,107 @@
       <x:c r="B2" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="C2" s="1" t="s"/>
-      <x:c r="D2" s="1" t="s"/>
-      <x:c r="E2" s="1" t="s">
+      <x:c r="C2" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="F2" s="1" t="s">
+      <x:c r="D2" s="1" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="G2" s="1" t="s">
+      <x:c r="E2" s="1" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="H2" s="1" t="s">
+      <x:c r="F2" s="1" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="I2" s="1" t="s">
+      <x:c r="G2" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="J2" s="1" t="s">
+      <x:c r="H2" s="1" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="K2" s="1" t="s">
+      <x:c r="I2" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
+      <x:c r="J2" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="K2" s="1" t="s">
+        <x:v>28</x:v>
+      </x:c>
       <x:c r="L2" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M2" s="1" t="s"/>
       <x:c r="N2" s="1" t="s"/>
       <x:c r="O2" s="1" t="s"/>
       <x:c r="P2" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Q2" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="R2" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="S2" s="1" t="s"/>
       <x:c r="T2" s="1" t="s"/>
       <x:c r="U2" s="1" t="s"/>
     </x:row>
     <x:row r="3" spans="1:21">
-      <x:c r="A3" s="1" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="B3" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C3" s="1" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="D3" s="1" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="E3" s="1" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="F3" s="1" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="G3" s="1" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="H3" s="1" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="I3" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="J3" s="1" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="K3" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="L3" s="1" t="s">
-        <x:v>27</x:v>
-      </x:c>
+      <x:c r="A3" s="1" t="s"/>
+      <x:c r="B3" s="1" t="s"/>
+      <x:c r="C3" s="1" t="s"/>
+      <x:c r="D3" s="1" t="s"/>
+      <x:c r="E3" s="1" t="s"/>
+      <x:c r="F3" s="1" t="s"/>
+      <x:c r="G3" s="1" t="s"/>
+      <x:c r="H3" s="1" t="s"/>
+      <x:c r="I3" s="1" t="s"/>
+      <x:c r="J3" s="1" t="s"/>
+      <x:c r="K3" s="1" t="s"/>
+      <x:c r="L3" s="1" t="s"/>
       <x:c r="M3" s="1" t="s"/>
-      <x:c r="P3" s="1" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="Q3" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="R3" s="1" t="s">
-        <x:v>40</x:v>
-      </x:c>
+      <x:c r="P3" s="1" t="s"/>
+      <x:c r="Q3" s="1" t="s"/>
+      <x:c r="R3" s="1" t="s"/>
       <x:c r="S3" s="1" t="s"/>
       <x:c r="T3" s="1" t="s"/>
     </x:row>
     <x:row r="4" spans="1:21">
-      <x:c r="A4" s="1" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="B4" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C4" s="1" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="D4" s="1" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="E4" s="1" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="F4" s="1" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="G4" s="1" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="H4" s="1" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="I4" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="J4" s="1" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="K4" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="L4" s="1" t="s">
-        <x:v>27</x:v>
-      </x:c>
+      <x:c r="A4" s="1" t="s"/>
+      <x:c r="B4" s="1" t="s"/>
+      <x:c r="C4" s="1" t="s"/>
+      <x:c r="D4" s="1" t="s"/>
+      <x:c r="E4" s="1" t="s"/>
+      <x:c r="F4" s="1" t="s"/>
+      <x:c r="G4" s="1" t="s"/>
+      <x:c r="H4" s="1" t="s"/>
+      <x:c r="I4" s="1" t="s"/>
+      <x:c r="J4" s="1" t="s"/>
+      <x:c r="K4" s="1" t="s"/>
+      <x:c r="L4" s="1" t="s"/>
       <x:c r="M4" s="1" t="s"/>
-      <x:c r="P4" s="1" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="Q4" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="R4" s="1" t="s">
-        <x:v>45</x:v>
-      </x:c>
+      <x:c r="P4" s="1" t="s"/>
+      <x:c r="Q4" s="1" t="s"/>
+      <x:c r="R4" s="1" t="s"/>
       <x:c r="S4" s="1" t="s"/>
     </x:row>
     <x:row r="5" spans="1:21">
-      <x:c r="A5" s="1" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="B5" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C5" s="1" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="D5" s="1" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="E5" s="1" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="F5" s="1" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="G5" s="1" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="H5" s="1" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="I5" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="J5" s="1" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="K5" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="L5" s="1" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="P5" s="1" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="Q5" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="R5" s="1" t="s">
-        <x:v>54</x:v>
-      </x:c>
+      <x:c r="A5" s="1" t="s"/>
+      <x:c r="B5" s="1" t="s"/>
+      <x:c r="C5" s="1" t="s"/>
+      <x:c r="D5" s="1" t="s"/>
+      <x:c r="E5" s="1" t="s"/>
+      <x:c r="F5" s="1" t="s"/>
+      <x:c r="G5" s="1" t="s"/>
+      <x:c r="H5" s="1" t="s"/>
+      <x:c r="I5" s="1" t="s"/>
+      <x:c r="J5" s="1" t="s"/>
+      <x:c r="K5" s="1" t="s"/>
+      <x:c r="L5" s="1" t="s"/>
+      <x:c r="P5" s="1" t="s"/>
+      <x:c r="Q5" s="1" t="s"/>
+      <x:c r="R5" s="1" t="s"/>
     </x:row>
     <x:row r="6" spans="1:21">
       <x:c r="A6" s="1" t="s"/>

--- a/Data/Temp/SharePoint.xlsx
+++ b/Data/Temp/SharePoint.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <x:si>
     <x:t>Name</x:t>
   </x:si>
   <x:si>
-    <x:t>Project Num</x:t>
+    <x:t>Project Num11</x:t>
   </x:si>
   <x:si>
     <x:t>Expense Code</x:t>
@@ -71,34 +71,34 @@
     <x:t>ID</x:t>
   </x:si>
   <x:si>
-    <x:t>SGSIN20023675P_PSA_pilot3</x:t>
+    <x:t>SGSIN20023675P__YL</x:t>
   </x:si>
   <x:si>
     <x:t>SGSIN20000035P</x:t>
   </x:si>
   <x:si>
-    <x:t>1023</x:t>
+    <x:t>1070</x:t>
   </x:si>
   <x:si>
-    <x:t>PILOTAGE - SHIFTING</x:t>
+    <x:t>LAUNCH SERVICES</x:t>
   </x:si>
   <x:si>
-    <x:t>PSA MARINE (PTE) LTD -ACCT NO: 903709</x:t>
+    <x:t>YORK LAUNCH SERVICE PTE LTD</x:t>
   </x:si>
   <x:si>
-    <x:t>001271_043</x:t>
+    <x:t>001811_043</x:t>
   </x:si>
   <x:si>
-    <x:t>VL71520</x:t>
+    <x:t>IN47769233</x:t>
   </x:si>
   <x:si>
-    <x:t>16/11/2020</x:t>
+    <x:t>12/11/2020</x:t>
   </x:si>
   <x:si>
     <x:t>SGD</x:t>
   </x:si>
   <x:si>
-    <x:t>504.07</x:t>
+    <x:t>374.5</x:t>
   </x:si>
   <x:si>
     <x:t>GST - INC - 7%</x:t>
@@ -107,13 +107,19 @@
     <x:t>RPA Journal</x:t>
   </x:si>
   <x:si>
-    <x:t>06/01/2021 21:57</x:t>
+    <x:t>10/11/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MAERSK TANKERS A/S</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07/01/2021 15:39</x:t>
   </x:si>
   <x:si>
     <x:t>Steve RPA</x:t>
   </x:si>
   <x:si>
-    <x:t>17</x:t>
+    <x:t>12</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -568,17 +574,23 @@
       <x:c r="L2" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="M2" s="1" t="s"/>
-      <x:c r="N2" s="1" t="s"/>
-      <x:c r="O2" s="1" t="s"/>
-      <x:c r="P2" s="1" t="s">
+      <x:c r="M2" s="1" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="Q2" s="1" t="s">
+      <x:c r="N2" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O2" s="1" t="s">
         <x:v>31</x:v>
       </x:c>
+      <x:c r="P2" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q2" s="1" t="s">
+        <x:v>33</x:v>
+      </x:c>
       <x:c r="R2" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="S2" s="1" t="s"/>
       <x:c r="T2" s="1" t="s"/>
